--- a/artfynd/A 41087-2023 artfynd.xlsx
+++ b/artfynd/A 41087-2023 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,6 +936,103 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131113864</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99013</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Finnforsån, Finnforsån, Vb</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>754134</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7191377</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Skellefteå socken</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-08-14</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Emelie Bergkvist</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Emelie Bergkvist</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 41087-2023 artfynd.xlsx
+++ b/artfynd/A 41087-2023 artfynd.xlsx
@@ -941,7 +941,7 @@
         <v>131113864</v>
       </c>
       <c r="B4" t="n">
-        <v>99013</v>
+        <v>99014</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 41087-2023 artfynd.xlsx
+++ b/artfynd/A 41087-2023 artfynd.xlsx
@@ -941,7 +941,7 @@
         <v>131113864</v>
       </c>
       <c r="B4" t="n">
-        <v>99014</v>
+        <v>99015</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 41087-2023 artfynd.xlsx
+++ b/artfynd/A 41087-2023 artfynd.xlsx
@@ -941,7 +941,7 @@
         <v>131113864</v>
       </c>
       <c r="B4" t="n">
-        <v>99015</v>
+        <v>99018</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
